--- a/Components/Jacdac_Pressure_Sensor_RevC_BOM.xlsx
+++ b/Components/Jacdac_Pressure_Sensor_RevC_BOM.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milad\Development\Jacdac\Jacdac-Pressure-Sensor\Components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D699159-232D-4945-B2D2-1693E8D03FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26833689-EA8E-43F5-A2B5-73AD97386D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="RevB" sheetId="3" r:id="rId1"/>
+    <sheet name="RevC" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -96,15 +96,9 @@
     <t xml:space="preserve">PRESSURE SENSOR </t>
   </si>
   <si>
-    <t>Digikey/Mouser/LCSC Part Number</t>
-  </si>
-  <si>
     <t>https://lcsc.com/product-detail/Magnetic-Sensors_Infineon-Technologies-TLV493DA1B6HTSA2_C126688.html</t>
   </si>
   <si>
-    <t>497-17590-1-ND /C2760770</t>
-  </si>
-  <si>
     <t>STM32G030F6P6</t>
   </si>
   <si>
@@ -307,6 +301,12 @@
   </si>
   <si>
     <t>https://lcsc.com/product-detail/ESD-Protection-Devices_TECH-PUBLIC-RCLAMP0521P_C2827711.html</t>
+  </si>
+  <si>
+    <t>Part Number</t>
+  </si>
+  <si>
+    <t>C2760770</t>
   </si>
 </sst>
 </file>
@@ -1187,24 +1187,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DD1190-5593-48E9-AA0A-6946DA6E214E}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="20.81640625" customWidth="1"/>
-    <col min="5" max="5" width="33.81640625" customWidth="1"/>
-    <col min="6" max="6" width="25.54296875" customWidth="1"/>
-    <col min="7" max="7" width="32.81640625" customWidth="1"/>
-    <col min="8" max="8" width="16.7265625" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="33.85546875" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="77.81640625" customWidth="1"/>
+    <col min="10" max="10" width="77.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
@@ -1236,7 +1236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1244,19 +1244,19 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="H2" s="1">
         <v>2.3300000000000001E-2</v>
@@ -1266,10 +1266,10 @@
         <v>6.9900000000000004E-2</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1277,19 +1277,19 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H3" s="1">
         <v>2.7199999999999998E-2</v>
@@ -1299,10 +1299,10 @@
         <v>5.4399999999999997E-2</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1310,19 +1310,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="H4" s="1">
         <v>3.9399999999999998E-2</v>
@@ -1332,10 +1332,10 @@
         <v>3.9399999999999998E-2</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1343,19 +1343,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="H5" s="1">
         <v>3.2000000000000001E-2</v>
@@ -1365,10 +1365,10 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1376,13 +1376,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>19</v>
@@ -1401,10 +1401,10 @@
         <v>18</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1412,16 +1412,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>13</v>
@@ -1434,10 +1434,10 @@
         <v>0.98</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1448,16 +1448,16 @@
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H8" s="1">
         <v>6.1400000000000003E-2</v>
@@ -1467,10 +1467,10 @@
         <v>6.1400000000000003E-2</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1478,19 +1478,19 @@
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="H9" s="1">
         <v>2.2700000000000001E-2</v>
@@ -1500,10 +1500,10 @@
         <v>4.5400000000000003E-2</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1511,19 +1511,19 @@
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="H10" s="1">
         <v>4.7600000000000003E-2</v>
@@ -1533,10 +1533,10 @@
         <v>9.5200000000000007E-2</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1544,19 +1544,19 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="H11" s="1">
         <v>3.3500000000000002E-2</v>
@@ -1566,10 +1566,10 @@
         <v>3.3500000000000002E-2</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1580,16 +1580,16 @@
         <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="H12" s="1">
         <v>3.0800000000000001E-2</v>
@@ -1599,10 +1599,10 @@
         <v>3.0800000000000001E-2</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1610,19 +1610,19 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H13" s="1">
         <v>2.8899999999999999E-2</v>
@@ -1632,10 +1632,10 @@
         <v>2.8899999999999999E-2</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1643,16 +1643,16 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>14</v>
@@ -1665,10 +1665,10 @@
         <v>2.4500000000000001E-2</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1676,19 +1676,19 @@
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="F15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="H15" s="1">
         <v>4.4499999999999998E-2</v>
@@ -1697,10 +1697,10 @@
         <v>8.8999999999999996E-2</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H17" s="4" t="s">
         <v>7</v>
       </c>
@@ -1725,6 +1725,7 @@
     <hyperlink ref="J2" r:id="rId12" xr:uid="{D14B237E-6486-497E-BAC0-40E667BD9E1D}"/>
     <hyperlink ref="J6" r:id="rId13" xr:uid="{5FF21EDA-18CF-40D9-A318-3A0FB4A19952}"/>
     <hyperlink ref="J14" r:id="rId14" xr:uid="{909BEB32-4E1A-445C-9541-93FC8F4F3B67}"/>
+    <hyperlink ref="J15" r:id="rId15" xr:uid="{DAFF4CD8-8AEF-4610-A282-60F662BDA611}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
